--- a/Texts/Сюжетные сцены/Глава 12.xlsx
+++ b/Texts/Сюжетные сцены/Глава 12.xlsx
@@ -5856,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D502" sqref="D502"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Сюжетные сцены/Глава 12.xlsx
+++ b/Texts/Сюжетные сцены/Глава 12.xlsx
@@ -5856,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
